--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value119.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value119.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.019211028169765</v>
+        <v>0.708396852016449</v>
       </c>
       <c r="B1">
-        <v>1.78353325663754</v>
+        <v>2.155993938446045</v>
       </c>
       <c r="C1">
-        <v>4.242692712617883</v>
+        <v>3.725496768951416</v>
       </c>
       <c r="D1">
-        <v>2.489123258149891</v>
+        <v>1.174253940582275</v>
       </c>
       <c r="E1">
-        <v>1.010031070575948</v>
+        <v>1.096481204032898</v>
       </c>
     </row>
   </sheetData>
